--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-organization)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-organization)
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-location)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This PractitionerRole profile represents an anonymized eCR PractitionerRole.
-It is based on the **US Public Health PractitionerRole** profile with further constraints to require masking of some data elements.</t>
+    <t>This PractitionerRole profile represents an anonymized eCR PractitionerRole.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -390,7 +390,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>PractitionerRole.contained</t>
@@ -416,9 +597,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension</t>
   </si>
   <si>
@@ -426,10 +604,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -440,10 +614,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
@@ -711,41 +881,12 @@
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.system</t>
   </si>
   <si>
@@ -753,9 +894,6 @@
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -819,41 +957,18 @@
     <t>PractitionerRole.telecom.value.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.value.extension:dataAbsentReason</t>
   </si>
   <si>
-    <t>dataAbsentReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
     <t>A value for telecom.value is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
-    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.value.extension:dataAbsentReason.id</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.value.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.value.extension:dataAbsentReason.extension</t>
   </si>
   <si>
@@ -866,44 +981,10 @@
     <t>PractitionerRole.telecom.value.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.value.extension:dataAbsentReason.value[x]</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.value.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>masked</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.value.value</t>
@@ -1456,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2293,13 +2374,13 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2310,21 +2391,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2344,9 +2425,7 @@
       <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2395,25 +2474,25 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2424,18 +2503,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2450,17 +2529,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2497,16 +2574,16 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2527,7 +2604,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2541,43 +2618,41 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2625,7 +2700,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2643,7 +2718,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2654,10 +2729,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2665,33 +2740,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2739,39 +2812,39 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2782,7 +2855,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2791,29 +2864,23 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2845,51 +2912,51 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2897,7 +2964,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -2909,27 +2976,27 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2971,10 +3038,10 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>86</v>
@@ -2983,27 +3050,27 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3017,22 +3084,22 @@
         <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3041,7 +3108,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3059,13 +3126,11 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3083,7 +3148,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3092,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>98</v>
@@ -3101,7 +3166,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3112,10 +3177,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3123,28 +3188,28 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3171,13 +3236,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3195,16 +3260,16 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>98</v>
@@ -3213,7 +3278,7 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3224,10 +3289,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3235,35 +3300,33 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3287,13 +3350,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3311,28 +3374,28 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
@@ -3340,14 +3403,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3357,24 +3420,26 @@
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3399,11 +3464,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3421,7 +3488,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3433,16 +3500,16 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
@@ -3450,14 +3517,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3467,24 +3534,26 @@
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3533,7 +3602,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3542,34 +3611,34 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3582,22 +3651,26 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3645,7 +3718,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3654,16 +3727,16 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3674,10 +3747,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3688,7 +3761,7 @@
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>87</v>
@@ -3700,17 +3773,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3759,7 +3832,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3768,30 +3841,30 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3811,23 +3884,29 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3871,7 +3950,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3883,38 +3962,38 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3923,21 +4002,21 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3973,51 +4052,51 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4040,13 +4119,13 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4073,13 +4152,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4097,7 +4176,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4106,19 +4185,19 @@
         <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4126,10 +4205,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4137,7 +4216,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4152,20 +4231,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4213,7 +4288,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4222,19 +4297,19 @@
         <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4242,10 +4317,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4256,28 +4331,32 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4301,13 +4380,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4325,28 +4404,28 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4354,10 +4433,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4365,28 +4444,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4413,29 +4492,29 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4447,16 +4526,16 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4464,23 +4543,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>87</v>
@@ -4489,16 +4566,16 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4549,7 +4626,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4558,30 +4635,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4592,7 +4669,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4604,13 +4681,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4661,25 +4738,25 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4690,10 +4767,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4701,31 +4778,33 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4761,19 +4840,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4782,16 +4861,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -4802,10 +4881,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4813,7 +4892,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -4828,24 +4907,22 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>75</v>
@@ -4887,10 +4964,10 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -4905,7 +4982,7 @@
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -4916,21 +4993,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4942,22 +5019,24 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>75</v>
@@ -4975,47 +5054,49 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5026,10 +5107,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5037,28 +5118,28 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5082,16 +5163,16 @@
         <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5109,7 +5190,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5118,19 +5199,19 @@
         <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5138,10 +5219,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5149,34 +5230,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5201,13 +5282,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5225,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5240,13 +5321,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5254,10 +5335,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5277,20 +5358,18 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5339,7 +5418,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5351,13 +5430,13 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -5368,10 +5447,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5379,10 +5458,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5391,16 +5470,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5439,40 +5518,38 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5480,24 +5557,26 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
@@ -5506,17 +5585,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5565,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5577,13 +5654,13 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -5594,10 +5671,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5620,13 +5697,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5677,7 +5754,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5686,7 +5763,7 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
@@ -5695,7 +5772,7 @@
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -5706,21 +5783,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5732,17 +5809,15 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5779,19 +5854,19 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5809,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -5820,52 +5895,50 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>75</v>
@@ -5907,25 +5980,25 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -5936,10 +6009,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5947,10 +6020,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5965,10 +6038,10 @@
         <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5977,7 +6050,7 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>75</v>
@@ -5995,13 +6068,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6019,16 +6090,16 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>164</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>98</v>
@@ -6037,7 +6108,7 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6048,10 +6119,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6074,13 +6145,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6104,7 +6175,7 @@
         <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>75</v>
@@ -6131,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6143,13 +6214,13 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6160,10 +6231,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6180,24 +6251,26 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6221,13 +6294,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6245,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6260,13 +6333,13 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6274,10 +6347,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6297,19 +6370,19 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6359,7 +6432,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6374,10 +6447,10 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>318</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6388,10 +6461,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6402,7 +6475,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6411,16 +6484,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6471,13 +6544,13 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
@@ -6486,13 +6559,13 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6500,10 +6573,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6514,7 +6587,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6526,15 +6599,17 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6583,25 +6658,25 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6612,21 +6687,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6638,17 +6713,15 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6697,25 +6770,25 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6726,14 +6799,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6746,26 +6819,24 @@
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6813,7 +6884,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>136</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6831,7 +6902,7 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -6842,33 +6913,33 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>349</v>
@@ -6876,8 +6947,12 @@
       <c r="M48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6925,25 +7000,25 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -6954,10 +7029,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6968,7 +7043,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6980,13 +7055,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7013,13 +7088,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -7037,13 +7112,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7055,7 +7130,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7066,10 +7141,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7092,13 +7167,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7149,7 +7224,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7167,7 +7242,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7178,10 +7253,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7192,10 +7267,10 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
@@ -7204,18 +7279,18 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7263,16 +7338,16 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7281,17 +7356,1035 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN51">
+  <autoFilter ref="A1:AN60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7301,7 +8394,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitionerrole.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,7 +391,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
